--- a/config_debug/fish3d_gun_barrel_config.xlsx
+++ b/config_debug/fish3d_gun_barrel_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>line|行号</t>
   </si>
@@ -350,14 +350,6 @@
       </rPr>
       <t>0,40</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍威力：伤害倍数、持续时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,60</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -498,6 +490,38 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>icon|技能图标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,120</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_jg_skill</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ct_skill</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hn_skill</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_sw_skill</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_sl_skill</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍威力：伤害倍数、子弹数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -635,7 +659,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,6 +710,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -966,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1156,7 +1186,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
@@ -1270,7 +1300,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>43</v>
@@ -1302,7 +1332,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>43</v>
@@ -1334,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>43</v>
@@ -1366,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>43</v>
@@ -1398,13 +1428,13 @@
         <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -1435,13 +1465,13 @@
         <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -1472,13 +1502,13 @@
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H8">
         <v>15</v>
@@ -1504,13 +1534,13 @@
         <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -1536,13 +1566,13 @@
         <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -1568,13 +1598,13 @@
         <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H11">
         <v>15</v>
@@ -2624,20 +2654,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="63.125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -2648,77 +2679,98 @@
         <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="17" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="C4" s="18"/>
       <c r="D4" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="18"/>
+      <c r="D5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>54</v>
+      <c r="C6" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_debug/fish3d_gun_barrel_config.xlsx
+++ b/config_debug/fish3d_gun_barrel_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -1595,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2615,6 +2615,906 @@
       </c>
       <c r="F51" s="6"/>
     </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2">
+        <v>10</v>
+      </c>
+      <c r="D52" s="2">
+        <f>C52*300</f>
+        <v>3000</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2">
+        <v>20</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" ref="D53:D101" si="1">C53*300</f>
+        <v>6000</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2">
+        <v>30</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2">
+        <v>50</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>60</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2</v>
+      </c>
+      <c r="C58" s="2">
+        <v>70</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="1"/>
+        <v>21000</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2">
+        <v>80</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2</v>
+      </c>
+      <c r="C60" s="2">
+        <v>90</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="1"/>
+        <v>27000</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2</v>
+      </c>
+      <c r="C61" s="2">
+        <v>100</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2">
+        <v>100</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2</v>
+      </c>
+      <c r="C63" s="2">
+        <v>200</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2">
+        <v>300</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2">
+        <v>400</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2</v>
+      </c>
+      <c r="C66" s="2">
+        <v>500</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2</v>
+      </c>
+      <c r="C67" s="2">
+        <v>600</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2</v>
+      </c>
+      <c r="C68" s="2">
+        <v>700</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="1"/>
+        <v>210000</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
+      <c r="C69" s="2">
+        <v>800</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="1"/>
+        <v>240000</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2</v>
+      </c>
+      <c r="C70" s="2">
+        <v>900</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="1"/>
+        <v>270000</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="1"/>
+        <v>600000</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="1"/>
+        <v>1200000</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" si="1"/>
+        <v>1500000</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2</v>
+      </c>
+      <c r="C78" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="1"/>
+        <v>2100000</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2</v>
+      </c>
+      <c r="C79" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="1"/>
+        <v>2400000</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2</v>
+      </c>
+      <c r="C80" s="2">
+        <v>9000</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="1"/>
+        <v>2700000</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2</v>
+      </c>
+      <c r="C81" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="1"/>
+        <v>3000000</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2</v>
+      </c>
+      <c r="C82" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="1"/>
+        <v>3000000</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2</v>
+      </c>
+      <c r="C83" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="1"/>
+        <v>6000000</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2</v>
+      </c>
+      <c r="C84" s="2">
+        <v>30000</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="1"/>
+        <v>9000000</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>2</v>
+      </c>
+      <c r="C85" s="2">
+        <v>40000</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" si="1"/>
+        <v>12000000</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2</v>
+      </c>
+      <c r="C86" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="1"/>
+        <v>15000000</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+      <c r="C87" s="2">
+        <v>60000</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="1"/>
+        <v>18000000</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2</v>
+      </c>
+      <c r="C88" s="2">
+        <v>70000</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="1"/>
+        <v>21000000</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2</v>
+      </c>
+      <c r="C89" s="2">
+        <v>80000</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="1"/>
+        <v>24000000</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2</v>
+      </c>
+      <c r="C90" s="2">
+        <v>90000</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="1"/>
+        <v>27000000</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>2</v>
+      </c>
+      <c r="C91" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="1"/>
+        <v>30000000</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2</v>
+      </c>
+      <c r="C92" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="1"/>
+        <v>30000000</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>2</v>
+      </c>
+      <c r="C93" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" si="1"/>
+        <v>60000000</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2</v>
+      </c>
+      <c r="C94" s="2">
+        <v>300000</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" si="1"/>
+        <v>90000000</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>2</v>
+      </c>
+      <c r="C95" s="2">
+        <v>400000</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="1"/>
+        <v>120000000</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2</v>
+      </c>
+      <c r="C96" s="2">
+        <v>500000</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="1"/>
+        <v>150000000</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>2</v>
+      </c>
+      <c r="C97" s="2">
+        <v>600000</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="1"/>
+        <v>180000000</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2</v>
+      </c>
+      <c r="C98" s="2">
+        <v>700000</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="1"/>
+        <v>210000000</v>
+      </c>
+      <c r="E98" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2</v>
+      </c>
+      <c r="C99" s="2">
+        <v>800000</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="1"/>
+        <v>240000000</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2">
+        <v>900000</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="1"/>
+        <v>270000000</v>
+      </c>
+      <c r="E100" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="1"/>
+        <v>300000000</v>
+      </c>
+      <c r="E101" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2627,7 +3527,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/fish3d_gun_barrel_config.xlsx
+++ b/config_debug/fish3d_gun_barrel_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1147,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -1625,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2645,6 +2645,906 @@
       </c>
       <c r="F51" s="6"/>
     </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2">
+        <v>10</v>
+      </c>
+      <c r="D52" s="2">
+        <f>C52*300</f>
+        <v>3000</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2">
+        <v>20</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" ref="D53:D101" si="1">C53*300</f>
+        <v>6000</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2">
+        <v>30</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2">
+        <v>50</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>60</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2</v>
+      </c>
+      <c r="C58" s="2">
+        <v>70</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="1"/>
+        <v>21000</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2">
+        <v>80</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2</v>
+      </c>
+      <c r="C60" s="2">
+        <v>90</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="1"/>
+        <v>27000</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2</v>
+      </c>
+      <c r="C61" s="2">
+        <v>100</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2">
+        <v>100</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2</v>
+      </c>
+      <c r="C63" s="2">
+        <v>200</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2">
+        <v>300</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2">
+        <v>400</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2</v>
+      </c>
+      <c r="C66" s="2">
+        <v>500</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2</v>
+      </c>
+      <c r="C67" s="2">
+        <v>600</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2</v>
+      </c>
+      <c r="C68" s="2">
+        <v>700</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="1"/>
+        <v>210000</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
+      <c r="C69" s="2">
+        <v>800</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="1"/>
+        <v>240000</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2</v>
+      </c>
+      <c r="C70" s="2">
+        <v>900</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="1"/>
+        <v>270000</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="1"/>
+        <v>600000</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="1"/>
+        <v>1200000</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" si="1"/>
+        <v>1500000</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2</v>
+      </c>
+      <c r="C78" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="1"/>
+        <v>2100000</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2</v>
+      </c>
+      <c r="C79" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="1"/>
+        <v>2400000</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2</v>
+      </c>
+      <c r="C80" s="2">
+        <v>9000</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="1"/>
+        <v>2700000</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2</v>
+      </c>
+      <c r="C81" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="1"/>
+        <v>3000000</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2</v>
+      </c>
+      <c r="C82" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="1"/>
+        <v>3000000</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2</v>
+      </c>
+      <c r="C83" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="1"/>
+        <v>6000000</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2</v>
+      </c>
+      <c r="C84" s="2">
+        <v>30000</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="1"/>
+        <v>9000000</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>2</v>
+      </c>
+      <c r="C85" s="2">
+        <v>40000</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" si="1"/>
+        <v>12000000</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2</v>
+      </c>
+      <c r="C86" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="1"/>
+        <v>15000000</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+      <c r="C87" s="2">
+        <v>60000</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="1"/>
+        <v>18000000</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2</v>
+      </c>
+      <c r="C88" s="2">
+        <v>70000</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="1"/>
+        <v>21000000</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2</v>
+      </c>
+      <c r="C89" s="2">
+        <v>80000</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="1"/>
+        <v>24000000</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2</v>
+      </c>
+      <c r="C90" s="2">
+        <v>90000</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="1"/>
+        <v>27000000</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>2</v>
+      </c>
+      <c r="C91" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="1"/>
+        <v>30000000</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2</v>
+      </c>
+      <c r="C92" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="1"/>
+        <v>30000000</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>2</v>
+      </c>
+      <c r="C93" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" si="1"/>
+        <v>60000000</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2</v>
+      </c>
+      <c r="C94" s="2">
+        <v>300000</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" si="1"/>
+        <v>90000000</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>2</v>
+      </c>
+      <c r="C95" s="2">
+        <v>400000</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="1"/>
+        <v>120000000</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2</v>
+      </c>
+      <c r="C96" s="2">
+        <v>500000</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="1"/>
+        <v>150000000</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>2</v>
+      </c>
+      <c r="C97" s="2">
+        <v>600000</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="1"/>
+        <v>180000000</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2</v>
+      </c>
+      <c r="C98" s="2">
+        <v>700000</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="1"/>
+        <v>210000000</v>
+      </c>
+      <c r="E98" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2</v>
+      </c>
+      <c r="C99" s="2">
+        <v>800000</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="1"/>
+        <v>240000000</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2">
+        <v>900000</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="1"/>
+        <v>270000000</v>
+      </c>
+      <c r="E100" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="1"/>
+        <v>300000000</v>
+      </c>
+      <c r="E101" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2656,7 +3556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/fish3d_gun_barrel_config.xlsx
+++ b/config_debug/fish3d_gun_barrel_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -997,7 +997,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1080,9 +1080,7 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
+      <c r="G3" s="2"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1104,9 +1102,7 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
-        <v>2</v>
-      </c>
+      <c r="G4" s="2"/>
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1128,9 +1124,7 @@
       <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1152,9 +1146,7 @@
       <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1176,9 +1168,7 @@
       <c r="F7" s="2">
         <v>4</v>
       </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1200,9 +1190,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_debug/fish3d_gun_barrel_config.xlsx
+++ b/config_debug/fish3d_gun_barrel_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1615,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52:D101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1666,7 +1666,7 @@
         <v>900</v>
       </c>
       <c r="E2" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F2" s="6"/>
     </row>
@@ -1685,7 +1685,7 @@
         <v>1800</v>
       </c>
       <c r="E3" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -1704,7 +1704,7 @@
         <v>2700</v>
       </c>
       <c r="E4" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -1723,7 +1723,7 @@
         <v>3600</v>
       </c>
       <c r="E5" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
@@ -1743,7 +1743,7 @@
         <v>4500</v>
       </c>
       <c r="E6" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="2"/>
@@ -1763,7 +1763,7 @@
         <v>5400</v>
       </c>
       <c r="E7" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
@@ -1783,7 +1783,7 @@
         <v>6300</v>
       </c>
       <c r="E8" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
@@ -1803,7 +1803,7 @@
         <v>7200</v>
       </c>
       <c r="E9" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="2"/>
@@ -1823,7 +1823,7 @@
         <v>8100</v>
       </c>
       <c r="E10" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
@@ -1843,7 +1843,7 @@
         <v>9000</v>
       </c>
       <c r="E11" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
@@ -1863,7 +1863,7 @@
         <v>9000</v>
       </c>
       <c r="E12" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
@@ -1883,7 +1883,7 @@
         <v>18000</v>
       </c>
       <c r="E13" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
@@ -1903,7 +1903,7 @@
         <v>27000</v>
       </c>
       <c r="E14" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
@@ -1923,7 +1923,7 @@
         <v>36000</v>
       </c>
       <c r="E15" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="2"/>
@@ -1943,7 +1943,7 @@
         <v>45000</v>
       </c>
       <c r="E16" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
@@ -1963,7 +1963,7 @@
         <v>54000</v>
       </c>
       <c r="E17" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
@@ -1983,7 +1983,7 @@
         <v>63000</v>
       </c>
       <c r="E18" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="2"/>
@@ -2003,7 +2003,7 @@
         <v>72000</v>
       </c>
       <c r="E19" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="2"/>
@@ -2023,7 +2023,7 @@
         <v>81000</v>
       </c>
       <c r="E20" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="2"/>
@@ -2043,7 +2043,7 @@
         <v>90000</v>
       </c>
       <c r="E21" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="2"/>
@@ -2063,7 +2063,7 @@
         <v>90000</v>
       </c>
       <c r="E22" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="2"/>
@@ -2083,7 +2083,7 @@
         <v>180000</v>
       </c>
       <c r="E23" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="2"/>
@@ -2103,7 +2103,7 @@
         <v>270000</v>
       </c>
       <c r="E24" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="2"/>
@@ -2123,7 +2123,7 @@
         <v>360000</v>
       </c>
       <c r="E25" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="2"/>
@@ -2143,7 +2143,7 @@
         <v>450000</v>
       </c>
       <c r="E26" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="2"/>
@@ -2163,7 +2163,7 @@
         <v>540000</v>
       </c>
       <c r="E27" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="2"/>
@@ -2183,7 +2183,7 @@
         <v>630000</v>
       </c>
       <c r="E28" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="2"/>
@@ -2203,7 +2203,7 @@
         <v>720000</v>
       </c>
       <c r="E29" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="2"/>
@@ -2223,7 +2223,7 @@
         <v>810000</v>
       </c>
       <c r="E30" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="2"/>
@@ -2243,7 +2243,7 @@
         <v>900000</v>
       </c>
       <c r="E31" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="2"/>
@@ -2263,7 +2263,7 @@
         <v>900000</v>
       </c>
       <c r="E32" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="2"/>
@@ -2283,7 +2283,7 @@
         <v>1800000</v>
       </c>
       <c r="E33" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="2"/>
@@ -2303,7 +2303,7 @@
         <v>2700000</v>
       </c>
       <c r="E34" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="2"/>
@@ -2323,7 +2323,7 @@
         <v>3600000</v>
       </c>
       <c r="E35" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="2"/>
@@ -2343,7 +2343,7 @@
         <v>4500000</v>
       </c>
       <c r="E36" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="2"/>
@@ -2363,7 +2363,7 @@
         <v>5400000</v>
       </c>
       <c r="E37" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F37" s="6"/>
     </row>
@@ -2382,7 +2382,7 @@
         <v>6300000</v>
       </c>
       <c r="E38" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F38" s="6"/>
     </row>
@@ -2401,7 +2401,7 @@
         <v>7200000</v>
       </c>
       <c r="E39" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F39" s="6"/>
     </row>
@@ -2420,7 +2420,7 @@
         <v>8100000</v>
       </c>
       <c r="E40" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F40" s="6"/>
     </row>
@@ -2439,7 +2439,7 @@
         <v>9000000</v>
       </c>
       <c r="E41" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F41" s="6"/>
     </row>
@@ -2458,7 +2458,7 @@
         <v>9000000</v>
       </c>
       <c r="E42" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F42" s="6"/>
     </row>
@@ -2477,7 +2477,7 @@
         <v>18000000</v>
       </c>
       <c r="E43" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F43" s="6"/>
     </row>
@@ -2496,7 +2496,7 @@
         <v>27000000</v>
       </c>
       <c r="E44" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F44" s="6"/>
     </row>
@@ -2515,7 +2515,7 @@
         <v>36000000</v>
       </c>
       <c r="E45" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F45" s="6"/>
     </row>
@@ -2534,7 +2534,7 @@
         <v>45000000</v>
       </c>
       <c r="E46" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F46" s="6"/>
     </row>
@@ -2553,7 +2553,7 @@
         <v>54000000</v>
       </c>
       <c r="E47" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F47" s="6"/>
     </row>
@@ -2572,7 +2572,7 @@
         <v>63000000</v>
       </c>
       <c r="E48" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F48" s="6"/>
     </row>
@@ -2591,7 +2591,7 @@
         <v>72000000</v>
       </c>
       <c r="E49" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F49" s="6"/>
     </row>
@@ -2610,7 +2610,7 @@
         <v>81000000</v>
       </c>
       <c r="E50" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F50" s="6"/>
     </row>
@@ -2629,7 +2629,7 @@
         <v>90000000</v>
       </c>
       <c r="E51" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F51" s="6"/>
     </row>
@@ -2648,7 +2648,7 @@
         <v>3000</v>
       </c>
       <c r="E52" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2666,7 +2666,7 @@
         <v>6000</v>
       </c>
       <c r="E53" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2684,7 +2684,7 @@
         <v>9000</v>
       </c>
       <c r="E54" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2702,7 +2702,7 @@
         <v>12000</v>
       </c>
       <c r="E55" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2720,7 +2720,7 @@
         <v>15000</v>
       </c>
       <c r="E56" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2738,7 +2738,7 @@
         <v>18000</v>
       </c>
       <c r="E57" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2756,7 +2756,7 @@
         <v>21000</v>
       </c>
       <c r="E58" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2774,7 +2774,7 @@
         <v>24000</v>
       </c>
       <c r="E59" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2792,7 +2792,7 @@
         <v>27000</v>
       </c>
       <c r="E60" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2810,7 +2810,7 @@
         <v>30000</v>
       </c>
       <c r="E61" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2828,7 +2828,7 @@
         <v>30000</v>
       </c>
       <c r="E62" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2846,7 +2846,7 @@
         <v>60000</v>
       </c>
       <c r="E63" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2864,7 +2864,7 @@
         <v>90000</v>
       </c>
       <c r="E64" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2882,7 +2882,7 @@
         <v>120000</v>
       </c>
       <c r="E65" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2900,7 +2900,7 @@
         <v>150000</v>
       </c>
       <c r="E66" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2918,7 +2918,7 @@
         <v>180000</v>
       </c>
       <c r="E67" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2936,7 +2936,7 @@
         <v>210000</v>
       </c>
       <c r="E68" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2954,7 +2954,7 @@
         <v>240000</v>
       </c>
       <c r="E69" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2972,7 +2972,7 @@
         <v>270000</v>
       </c>
       <c r="E70" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2990,7 +2990,7 @@
         <v>300000</v>
       </c>
       <c r="E71" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3008,7 +3008,7 @@
         <v>300000</v>
       </c>
       <c r="E72" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3026,7 +3026,7 @@
         <v>600000</v>
       </c>
       <c r="E73" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3044,7 +3044,7 @@
         <v>900000</v>
       </c>
       <c r="E74" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3062,7 +3062,7 @@
         <v>1200000</v>
       </c>
       <c r="E75" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3080,7 +3080,7 @@
         <v>1500000</v>
       </c>
       <c r="E76" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3098,7 +3098,7 @@
         <v>1800000</v>
       </c>
       <c r="E77" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3116,7 +3116,7 @@
         <v>2100000</v>
       </c>
       <c r="E78" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3134,7 +3134,7 @@
         <v>2400000</v>
       </c>
       <c r="E79" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3152,7 +3152,7 @@
         <v>2700000</v>
       </c>
       <c r="E80" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3170,7 +3170,7 @@
         <v>3000000</v>
       </c>
       <c r="E81" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3188,7 +3188,7 @@
         <v>3000000</v>
       </c>
       <c r="E82" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3206,7 +3206,7 @@
         <v>6000000</v>
       </c>
       <c r="E83" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -3224,7 +3224,7 @@
         <v>9000000</v>
       </c>
       <c r="E84" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3242,7 +3242,7 @@
         <v>12000000</v>
       </c>
       <c r="E85" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3260,7 +3260,7 @@
         <v>15000000</v>
       </c>
       <c r="E86" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3278,7 +3278,7 @@
         <v>18000000</v>
       </c>
       <c r="E87" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3296,7 +3296,7 @@
         <v>21000000</v>
       </c>
       <c r="E88" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -3314,7 +3314,7 @@
         <v>24000000</v>
       </c>
       <c r="E89" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3332,7 +3332,7 @@
         <v>27000000</v>
       </c>
       <c r="E90" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -3350,7 +3350,7 @@
         <v>30000000</v>
       </c>
       <c r="E91" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -3368,7 +3368,7 @@
         <v>30000000</v>
       </c>
       <c r="E92" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -3386,7 +3386,7 @@
         <v>60000000</v>
       </c>
       <c r="E93" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -3404,7 +3404,7 @@
         <v>90000000</v>
       </c>
       <c r="E94" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -3422,7 +3422,7 @@
         <v>120000000</v>
       </c>
       <c r="E95" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -3440,7 +3440,7 @@
         <v>150000000</v>
       </c>
       <c r="E96" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -3458,7 +3458,7 @@
         <v>180000000</v>
       </c>
       <c r="E97" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3476,7 +3476,7 @@
         <v>210000000</v>
       </c>
       <c r="E98" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -3494,7 +3494,7 @@
         <v>240000000</v>
       </c>
       <c r="E99" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3512,7 +3512,7 @@
         <v>270000000</v>
       </c>
       <c r="E100" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3530,7 +3530,7 @@
         <v>300000000</v>
       </c>
       <c r="E101" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish3d_gun_barrel_config.xlsx
+++ b/config_debug/fish3d_gun_barrel_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>line|行号</t>
   </si>
@@ -521,6 +521,42 @@
   </si>
   <si>
     <t>双倍威力：伤害倍数、子弹数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续签到获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统赠送</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP5开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30万金币购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3开启</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -997,7 +1033,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1094,9 @@
         <v>1</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1080,7 +1118,12 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1102,7 +1145,12 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1124,7 +1172,12 @@
       <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1146,7 +1199,12 @@
       <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1168,7 +1226,12 @@
       <c r="F7" s="2">
         <v>4</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1190,20 +1253,37 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H9" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H10" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" s="2"/>
+      <c r="H12" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1223,7 +1303,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J6" sqref="J6:J11"/>
+      <selection pane="topRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1615,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1666,7 +1746,7 @@
         <v>900</v>
       </c>
       <c r="E2" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F2" s="6"/>
     </row>
@@ -1685,7 +1765,7 @@
         <v>1800</v>
       </c>
       <c r="E3" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -1704,7 +1784,7 @@
         <v>2700</v>
       </c>
       <c r="E4" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -1723,7 +1803,7 @@
         <v>3600</v>
       </c>
       <c r="E5" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
@@ -1743,7 +1823,7 @@
         <v>4500</v>
       </c>
       <c r="E6" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="2"/>
@@ -1763,7 +1843,7 @@
         <v>5400</v>
       </c>
       <c r="E7" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
@@ -1783,7 +1863,7 @@
         <v>6300</v>
       </c>
       <c r="E8" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
@@ -1803,7 +1883,7 @@
         <v>7200</v>
       </c>
       <c r="E9" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="2"/>
@@ -1823,7 +1903,7 @@
         <v>8100</v>
       </c>
       <c r="E10" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
@@ -1843,7 +1923,7 @@
         <v>9000</v>
       </c>
       <c r="E11" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
@@ -1863,7 +1943,7 @@
         <v>9000</v>
       </c>
       <c r="E12" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
@@ -1883,7 +1963,7 @@
         <v>18000</v>
       </c>
       <c r="E13" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
@@ -1903,7 +1983,7 @@
         <v>27000</v>
       </c>
       <c r="E14" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
@@ -1923,7 +2003,7 @@
         <v>36000</v>
       </c>
       <c r="E15" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="2"/>
@@ -1943,7 +2023,7 @@
         <v>45000</v>
       </c>
       <c r="E16" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
@@ -1963,7 +2043,7 @@
         <v>54000</v>
       </c>
       <c r="E17" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
@@ -1983,7 +2063,7 @@
         <v>63000</v>
       </c>
       <c r="E18" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="2"/>
@@ -2003,7 +2083,7 @@
         <v>72000</v>
       </c>
       <c r="E19" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="2"/>
@@ -2023,7 +2103,7 @@
         <v>81000</v>
       </c>
       <c r="E20" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="2"/>
@@ -2043,7 +2123,7 @@
         <v>90000</v>
       </c>
       <c r="E21" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="2"/>
@@ -2063,7 +2143,7 @@
         <v>90000</v>
       </c>
       <c r="E22" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="2"/>
@@ -2083,7 +2163,7 @@
         <v>180000</v>
       </c>
       <c r="E23" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="2"/>
@@ -2103,7 +2183,7 @@
         <v>270000</v>
       </c>
       <c r="E24" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="2"/>
@@ -2123,7 +2203,7 @@
         <v>360000</v>
       </c>
       <c r="E25" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="2"/>
@@ -2143,7 +2223,7 @@
         <v>450000</v>
       </c>
       <c r="E26" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="2"/>
@@ -2163,7 +2243,7 @@
         <v>540000</v>
       </c>
       <c r="E27" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="2"/>
@@ -2183,7 +2263,7 @@
         <v>630000</v>
       </c>
       <c r="E28" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="2"/>
@@ -2203,7 +2283,7 @@
         <v>720000</v>
       </c>
       <c r="E29" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="2"/>
@@ -2223,7 +2303,7 @@
         <v>810000</v>
       </c>
       <c r="E30" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="2"/>
@@ -2243,7 +2323,7 @@
         <v>900000</v>
       </c>
       <c r="E31" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="2"/>
@@ -2263,7 +2343,7 @@
         <v>900000</v>
       </c>
       <c r="E32" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="2"/>
@@ -2283,7 +2363,7 @@
         <v>1800000</v>
       </c>
       <c r="E33" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="2"/>
@@ -2303,7 +2383,7 @@
         <v>2700000</v>
       </c>
       <c r="E34" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="2"/>
@@ -2323,7 +2403,7 @@
         <v>3600000</v>
       </c>
       <c r="E35" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="2"/>
@@ -2343,7 +2423,7 @@
         <v>4500000</v>
       </c>
       <c r="E36" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="2"/>
@@ -2363,7 +2443,7 @@
         <v>5400000</v>
       </c>
       <c r="E37" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F37" s="6"/>
     </row>
@@ -2382,7 +2462,7 @@
         <v>6300000</v>
       </c>
       <c r="E38" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F38" s="6"/>
     </row>
@@ -2401,7 +2481,7 @@
         <v>7200000</v>
       </c>
       <c r="E39" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F39" s="6"/>
     </row>
@@ -2420,7 +2500,7 @@
         <v>8100000</v>
       </c>
       <c r="E40" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F40" s="6"/>
     </row>
@@ -2439,7 +2519,7 @@
         <v>9000000</v>
       </c>
       <c r="E41" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F41" s="6"/>
     </row>
@@ -2458,7 +2538,7 @@
         <v>9000000</v>
       </c>
       <c r="E42" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F42" s="6"/>
     </row>
@@ -2477,7 +2557,7 @@
         <v>18000000</v>
       </c>
       <c r="E43" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F43" s="6"/>
     </row>
@@ -2496,7 +2576,7 @@
         <v>27000000</v>
       </c>
       <c r="E44" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F44" s="6"/>
     </row>
@@ -2515,7 +2595,7 @@
         <v>36000000</v>
       </c>
       <c r="E45" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F45" s="6"/>
     </row>
@@ -2534,7 +2614,7 @@
         <v>45000000</v>
       </c>
       <c r="E46" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F46" s="6"/>
     </row>
@@ -2553,7 +2633,7 @@
         <v>54000000</v>
       </c>
       <c r="E47" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F47" s="6"/>
     </row>
@@ -2572,7 +2652,7 @@
         <v>63000000</v>
       </c>
       <c r="E48" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F48" s="6"/>
     </row>
@@ -2591,7 +2671,7 @@
         <v>72000000</v>
       </c>
       <c r="E49" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F49" s="6"/>
     </row>
@@ -2610,7 +2690,7 @@
         <v>81000000</v>
       </c>
       <c r="E50" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F50" s="6"/>
     </row>
@@ -2629,7 +2709,7 @@
         <v>90000000</v>
       </c>
       <c r="E51" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F51" s="6"/>
     </row>
@@ -2648,7 +2728,7 @@
         <v>3000</v>
       </c>
       <c r="E52" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2666,7 +2746,7 @@
         <v>6000</v>
       </c>
       <c r="E53" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2684,7 +2764,7 @@
         <v>9000</v>
       </c>
       <c r="E54" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2702,7 +2782,7 @@
         <v>12000</v>
       </c>
       <c r="E55" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2720,7 +2800,7 @@
         <v>15000</v>
       </c>
       <c r="E56" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2738,7 +2818,7 @@
         <v>18000</v>
       </c>
       <c r="E57" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2756,7 +2836,7 @@
         <v>21000</v>
       </c>
       <c r="E58" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2774,7 +2854,7 @@
         <v>24000</v>
       </c>
       <c r="E59" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2792,7 +2872,7 @@
         <v>27000</v>
       </c>
       <c r="E60" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2810,7 +2890,7 @@
         <v>30000</v>
       </c>
       <c r="E61" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2828,7 +2908,7 @@
         <v>30000</v>
       </c>
       <c r="E62" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2846,7 +2926,7 @@
         <v>60000</v>
       </c>
       <c r="E63" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2864,7 +2944,7 @@
         <v>90000</v>
       </c>
       <c r="E64" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2882,7 +2962,7 @@
         <v>120000</v>
       </c>
       <c r="E65" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2900,7 +2980,7 @@
         <v>150000</v>
       </c>
       <c r="E66" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2918,7 +2998,7 @@
         <v>180000</v>
       </c>
       <c r="E67" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2936,7 +3016,7 @@
         <v>210000</v>
       </c>
       <c r="E68" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2954,7 +3034,7 @@
         <v>240000</v>
       </c>
       <c r="E69" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2972,7 +3052,7 @@
         <v>270000</v>
       </c>
       <c r="E70" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2990,7 +3070,7 @@
         <v>300000</v>
       </c>
       <c r="E71" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3008,7 +3088,7 @@
         <v>300000</v>
       </c>
       <c r="E72" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3026,7 +3106,7 @@
         <v>600000</v>
       </c>
       <c r="E73" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3044,7 +3124,7 @@
         <v>900000</v>
       </c>
       <c r="E74" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3062,7 +3142,7 @@
         <v>1200000</v>
       </c>
       <c r="E75" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3080,7 +3160,7 @@
         <v>1500000</v>
       </c>
       <c r="E76" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3098,7 +3178,7 @@
         <v>1800000</v>
       </c>
       <c r="E77" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3116,7 +3196,7 @@
         <v>2100000</v>
       </c>
       <c r="E78" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3134,7 +3214,7 @@
         <v>2400000</v>
       </c>
       <c r="E79" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3152,7 +3232,7 @@
         <v>2700000</v>
       </c>
       <c r="E80" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3170,7 +3250,7 @@
         <v>3000000</v>
       </c>
       <c r="E81" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3188,7 +3268,7 @@
         <v>3000000</v>
       </c>
       <c r="E82" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3206,7 +3286,7 @@
         <v>6000000</v>
       </c>
       <c r="E83" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -3224,7 +3304,7 @@
         <v>9000000</v>
       </c>
       <c r="E84" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3242,7 +3322,7 @@
         <v>12000000</v>
       </c>
       <c r="E85" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3260,7 +3340,7 @@
         <v>15000000</v>
       </c>
       <c r="E86" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3278,7 +3358,7 @@
         <v>18000000</v>
       </c>
       <c r="E87" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3296,7 +3376,7 @@
         <v>21000000</v>
       </c>
       <c r="E88" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -3314,7 +3394,7 @@
         <v>24000000</v>
       </c>
       <c r="E89" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3332,7 +3412,7 @@
         <v>27000000</v>
       </c>
       <c r="E90" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -3350,7 +3430,7 @@
         <v>30000000</v>
       </c>
       <c r="E91" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -3368,7 +3448,7 @@
         <v>30000000</v>
       </c>
       <c r="E92" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -3386,7 +3466,7 @@
         <v>60000000</v>
       </c>
       <c r="E93" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -3404,7 +3484,7 @@
         <v>90000000</v>
       </c>
       <c r="E94" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -3422,7 +3502,7 @@
         <v>120000000</v>
       </c>
       <c r="E95" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -3440,7 +3520,7 @@
         <v>150000000</v>
       </c>
       <c r="E96" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -3458,7 +3538,7 @@
         <v>180000000</v>
       </c>
       <c r="E97" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3476,7 +3556,7 @@
         <v>210000000</v>
       </c>
       <c r="E98" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -3494,7 +3574,7 @@
         <v>240000000</v>
       </c>
       <c r="E99" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3512,7 +3592,7 @@
         <v>270000000</v>
       </c>
       <c r="E100" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3530,7 +3610,7 @@
         <v>300000000</v>
       </c>
       <c r="E101" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -3666,8 +3746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/fish3d_gun_barrel_config.xlsx
+++ b/config_debug/fish3d_gun_barrel_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>line|行号</t>
   </si>
@@ -521,42 +521,6 @@
   </si>
   <si>
     <t>双倍威力：伤害倍数、子弹数量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续签到获得</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP1开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统赠送</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP5开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼包购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30万金币购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6元购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3开启</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1033,7 +997,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1094,9 +1058,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="H2" s="14"/>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1121,9 +1083,7 @@
       <c r="G3" s="2">
         <v>4</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>83</v>
-      </c>
+      <c r="H3" s="14"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1148,9 +1108,7 @@
       <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>86</v>
-      </c>
+      <c r="H4" s="14"/>
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1175,9 +1133,7 @@
       <c r="G5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>87</v>
-      </c>
+      <c r="H5" s="14"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1202,9 +1158,7 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>88</v>
-      </c>
+      <c r="H6" s="14"/>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1229,9 +1183,7 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="H7" s="14"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1256,34 +1208,24 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="H8" s="14"/>
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H9" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="H9" s="14"/>
       <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H10" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="H10" s="14"/>
       <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H11" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="H11" s="14"/>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" s="2"/>
-      <c r="H12" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="H12" s="14"/>
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1695,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1746,7 +1688,7 @@
         <v>900</v>
       </c>
       <c r="E2" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F2" s="6"/>
     </row>
@@ -1765,7 +1707,7 @@
         <v>1800</v>
       </c>
       <c r="E3" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -1784,7 +1726,7 @@
         <v>2700</v>
       </c>
       <c r="E4" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -1803,7 +1745,7 @@
         <v>3600</v>
       </c>
       <c r="E5" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
@@ -1823,7 +1765,7 @@
         <v>4500</v>
       </c>
       <c r="E6" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="2"/>
@@ -1843,7 +1785,7 @@
         <v>5400</v>
       </c>
       <c r="E7" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
@@ -1863,7 +1805,7 @@
         <v>6300</v>
       </c>
       <c r="E8" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
@@ -1883,7 +1825,7 @@
         <v>7200</v>
       </c>
       <c r="E9" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="2"/>
@@ -1903,7 +1845,7 @@
         <v>8100</v>
       </c>
       <c r="E10" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
@@ -1923,7 +1865,7 @@
         <v>9000</v>
       </c>
       <c r="E11" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
@@ -1943,7 +1885,7 @@
         <v>9000</v>
       </c>
       <c r="E12" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
@@ -1963,7 +1905,7 @@
         <v>18000</v>
       </c>
       <c r="E13" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
@@ -1983,7 +1925,7 @@
         <v>27000</v>
       </c>
       <c r="E14" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
@@ -2003,7 +1945,7 @@
         <v>36000</v>
       </c>
       <c r="E15" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="2"/>
@@ -2023,7 +1965,7 @@
         <v>45000</v>
       </c>
       <c r="E16" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
@@ -2043,7 +1985,7 @@
         <v>54000</v>
       </c>
       <c r="E17" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
@@ -2063,7 +2005,7 @@
         <v>63000</v>
       </c>
       <c r="E18" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="2"/>
@@ -2083,7 +2025,7 @@
         <v>72000</v>
       </c>
       <c r="E19" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="2"/>
@@ -2103,7 +2045,7 @@
         <v>81000</v>
       </c>
       <c r="E20" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="2"/>
@@ -2123,7 +2065,7 @@
         <v>90000</v>
       </c>
       <c r="E21" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="2"/>
@@ -2143,7 +2085,7 @@
         <v>90000</v>
       </c>
       <c r="E22" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="2"/>
@@ -2163,7 +2105,7 @@
         <v>180000</v>
       </c>
       <c r="E23" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="2"/>
@@ -2183,7 +2125,7 @@
         <v>270000</v>
       </c>
       <c r="E24" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="2"/>
@@ -2203,7 +2145,7 @@
         <v>360000</v>
       </c>
       <c r="E25" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="2"/>
@@ -2223,7 +2165,7 @@
         <v>450000</v>
       </c>
       <c r="E26" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="2"/>
@@ -2243,7 +2185,7 @@
         <v>540000</v>
       </c>
       <c r="E27" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="2"/>
@@ -2263,7 +2205,7 @@
         <v>630000</v>
       </c>
       <c r="E28" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="2"/>
@@ -2283,7 +2225,7 @@
         <v>720000</v>
       </c>
       <c r="E29" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="2"/>
@@ -2303,7 +2245,7 @@
         <v>810000</v>
       </c>
       <c r="E30" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="2"/>
@@ -2323,7 +2265,7 @@
         <v>900000</v>
       </c>
       <c r="E31" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="2"/>
@@ -2343,7 +2285,7 @@
         <v>900000</v>
       </c>
       <c r="E32" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="2"/>
@@ -2363,7 +2305,7 @@
         <v>1800000</v>
       </c>
       <c r="E33" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="2"/>
@@ -2383,7 +2325,7 @@
         <v>2700000</v>
       </c>
       <c r="E34" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="2"/>
@@ -2403,7 +2345,7 @@
         <v>3600000</v>
       </c>
       <c r="E35" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="2"/>
@@ -2423,7 +2365,7 @@
         <v>4500000</v>
       </c>
       <c r="E36" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="2"/>
@@ -2443,7 +2385,7 @@
         <v>5400000</v>
       </c>
       <c r="E37" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F37" s="6"/>
     </row>
@@ -2462,7 +2404,7 @@
         <v>6300000</v>
       </c>
       <c r="E38" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F38" s="6"/>
     </row>
@@ -2481,7 +2423,7 @@
         <v>7200000</v>
       </c>
       <c r="E39" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F39" s="6"/>
     </row>
@@ -2500,7 +2442,7 @@
         <v>8100000</v>
       </c>
       <c r="E40" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F40" s="6"/>
     </row>
@@ -2519,7 +2461,7 @@
         <v>9000000</v>
       </c>
       <c r="E41" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F41" s="6"/>
     </row>
@@ -2538,7 +2480,7 @@
         <v>9000000</v>
       </c>
       <c r="E42" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F42" s="6"/>
     </row>
@@ -2557,7 +2499,7 @@
         <v>18000000</v>
       </c>
       <c r="E43" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F43" s="6"/>
     </row>
@@ -2576,7 +2518,7 @@
         <v>27000000</v>
       </c>
       <c r="E44" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F44" s="6"/>
     </row>
@@ -2595,7 +2537,7 @@
         <v>36000000</v>
       </c>
       <c r="E45" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F45" s="6"/>
     </row>
@@ -2614,7 +2556,7 @@
         <v>45000000</v>
       </c>
       <c r="E46" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F46" s="6"/>
     </row>
@@ -2633,7 +2575,7 @@
         <v>54000000</v>
       </c>
       <c r="E47" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F47" s="6"/>
     </row>
@@ -2652,7 +2594,7 @@
         <v>63000000</v>
       </c>
       <c r="E48" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F48" s="6"/>
     </row>
@@ -2671,7 +2613,7 @@
         <v>72000000</v>
       </c>
       <c r="E49" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F49" s="6"/>
     </row>
@@ -2690,7 +2632,7 @@
         <v>81000000</v>
       </c>
       <c r="E50" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F50" s="6"/>
     </row>
@@ -2709,7 +2651,7 @@
         <v>90000000</v>
       </c>
       <c r="E51" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F51" s="6"/>
     </row>
@@ -2728,7 +2670,7 @@
         <v>3000</v>
       </c>
       <c r="E52" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2746,7 +2688,7 @@
         <v>6000</v>
       </c>
       <c r="E53" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2764,7 +2706,7 @@
         <v>9000</v>
       </c>
       <c r="E54" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2782,7 +2724,7 @@
         <v>12000</v>
       </c>
       <c r="E55" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2800,7 +2742,7 @@
         <v>15000</v>
       </c>
       <c r="E56" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2818,7 +2760,7 @@
         <v>18000</v>
       </c>
       <c r="E57" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2836,7 +2778,7 @@
         <v>21000</v>
       </c>
       <c r="E58" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2854,7 +2796,7 @@
         <v>24000</v>
       </c>
       <c r="E59" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2872,7 +2814,7 @@
         <v>27000</v>
       </c>
       <c r="E60" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2890,7 +2832,7 @@
         <v>30000</v>
       </c>
       <c r="E61" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2908,7 +2850,7 @@
         <v>30000</v>
       </c>
       <c r="E62" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2926,7 +2868,7 @@
         <v>60000</v>
       </c>
       <c r="E63" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2944,7 +2886,7 @@
         <v>90000</v>
       </c>
       <c r="E64" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2962,7 +2904,7 @@
         <v>120000</v>
       </c>
       <c r="E65" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2980,7 +2922,7 @@
         <v>150000</v>
       </c>
       <c r="E66" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2998,7 +2940,7 @@
         <v>180000</v>
       </c>
       <c r="E67" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3016,7 +2958,7 @@
         <v>210000</v>
       </c>
       <c r="E68" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3034,7 +2976,7 @@
         <v>240000</v>
       </c>
       <c r="E69" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3052,7 +2994,7 @@
         <v>270000</v>
       </c>
       <c r="E70" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3070,7 +3012,7 @@
         <v>300000</v>
       </c>
       <c r="E71" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3088,7 +3030,7 @@
         <v>300000</v>
       </c>
       <c r="E72" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3106,7 +3048,7 @@
         <v>600000</v>
       </c>
       <c r="E73" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3124,7 +3066,7 @@
         <v>900000</v>
       </c>
       <c r="E74" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3142,7 +3084,7 @@
         <v>1200000</v>
       </c>
       <c r="E75" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3160,7 +3102,7 @@
         <v>1500000</v>
       </c>
       <c r="E76" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3178,7 +3120,7 @@
         <v>1800000</v>
       </c>
       <c r="E77" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3196,7 +3138,7 @@
         <v>2100000</v>
       </c>
       <c r="E78" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3214,7 +3156,7 @@
         <v>2400000</v>
       </c>
       <c r="E79" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3232,7 +3174,7 @@
         <v>2700000</v>
       </c>
       <c r="E80" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3250,7 +3192,7 @@
         <v>3000000</v>
       </c>
       <c r="E81" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3268,7 +3210,7 @@
         <v>3000000</v>
       </c>
       <c r="E82" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3286,7 +3228,7 @@
         <v>6000000</v>
       </c>
       <c r="E83" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -3304,7 +3246,7 @@
         <v>9000000</v>
       </c>
       <c r="E84" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3322,7 +3264,7 @@
         <v>12000000</v>
       </c>
       <c r="E85" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3340,7 +3282,7 @@
         <v>15000000</v>
       </c>
       <c r="E86" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3358,7 +3300,7 @@
         <v>18000000</v>
       </c>
       <c r="E87" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3376,7 +3318,7 @@
         <v>21000000</v>
       </c>
       <c r="E88" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -3394,7 +3336,7 @@
         <v>24000000</v>
       </c>
       <c r="E89" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3412,7 +3354,7 @@
         <v>27000000</v>
       </c>
       <c r="E90" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -3430,7 +3372,7 @@
         <v>30000000</v>
       </c>
       <c r="E91" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -3448,7 +3390,7 @@
         <v>30000000</v>
       </c>
       <c r="E92" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -3466,7 +3408,7 @@
         <v>60000000</v>
       </c>
       <c r="E93" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -3484,7 +3426,7 @@
         <v>90000000</v>
       </c>
       <c r="E94" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -3502,7 +3444,7 @@
         <v>120000000</v>
       </c>
       <c r="E95" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -3520,7 +3462,7 @@
         <v>150000000</v>
       </c>
       <c r="E96" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -3538,7 +3480,7 @@
         <v>180000000</v>
       </c>
       <c r="E97" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3556,7 +3498,7 @@
         <v>210000000</v>
       </c>
       <c r="E98" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -3574,7 +3516,7 @@
         <v>240000000</v>
       </c>
       <c r="E99" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3592,7 +3534,7 @@
         <v>270000000</v>
       </c>
       <c r="E100" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3610,7 +3552,7 @@
         <v>300000000</v>
       </c>
       <c r="E101" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3746,7 +3688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/fish3d_gun_barrel_config.xlsx
+++ b/config_debug/fish3d_gun_barrel_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
   <si>
     <t>line|行号</t>
   </si>
@@ -522,6 +522,34 @@
   <si>
     <t>双倍威力：伤害倍数、子弹数量</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统赠送</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续签到获得</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3开启</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30万金币购买</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元购买</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP5开启</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -996,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1086,9 @@
         <v>1</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1083,7 +1113,9 @@
       <c r="G3" s="2">
         <v>4</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1108,7 +1140,9 @@
       <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1133,7 +1167,9 @@
       <c r="G5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1158,7 +1194,9 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1183,7 +1221,9 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1208,7 +1248,9 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1637,7 +1679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E101"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/fish3d_gun_barrel_config.xlsx
+++ b/config_debug/fish3d_gun_barrel_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,9 +114,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>1：购买
+          <t xml:space="preserve">1：购买
 2：VIP送
-3：活动赠送</t>
+3：活动赠送
+4：等级
+</t>
         </r>
       </text>
     </comment>
@@ -1118,7 +1120,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4086,8 +4088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/fish3d_gun_barrel_config.xlsx
+++ b/config_debug/fish3d_gun_barrel_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main|主表" sheetId="6" r:id="rId1"/>
@@ -2037,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E101"/>
     </sheetView>
   </sheetViews>
@@ -2088,7 +2088,7 @@
         <v>900</v>
       </c>
       <c r="E2" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F2" s="6"/>
     </row>
@@ -2107,7 +2107,7 @@
         <v>1800</v>
       </c>
       <c r="E3" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -2126,7 +2126,7 @@
         <v>2700</v>
       </c>
       <c r="E4" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -2145,7 +2145,7 @@
         <v>3600</v>
       </c>
       <c r="E5" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
@@ -2165,7 +2165,7 @@
         <v>4500</v>
       </c>
       <c r="E6" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="2"/>
@@ -2185,7 +2185,7 @@
         <v>5400</v>
       </c>
       <c r="E7" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
@@ -2205,7 +2205,7 @@
         <v>6300</v>
       </c>
       <c r="E8" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
@@ -2225,7 +2225,7 @@
         <v>7200</v>
       </c>
       <c r="E9" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="2"/>
@@ -2245,7 +2245,7 @@
         <v>8100</v>
       </c>
       <c r="E10" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
@@ -2265,7 +2265,7 @@
         <v>9000</v>
       </c>
       <c r="E11" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
@@ -2285,7 +2285,7 @@
         <v>9000</v>
       </c>
       <c r="E12" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
@@ -2305,7 +2305,7 @@
         <v>18000</v>
       </c>
       <c r="E13" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
@@ -2325,7 +2325,7 @@
         <v>27000</v>
       </c>
       <c r="E14" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
@@ -2345,7 +2345,7 @@
         <v>36000</v>
       </c>
       <c r="E15" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="2"/>
@@ -2365,7 +2365,7 @@
         <v>45000</v>
       </c>
       <c r="E16" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
@@ -2385,7 +2385,7 @@
         <v>54000</v>
       </c>
       <c r="E17" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
@@ -2405,7 +2405,7 @@
         <v>63000</v>
       </c>
       <c r="E18" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="2"/>
@@ -2425,7 +2425,7 @@
         <v>72000</v>
       </c>
       <c r="E19" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="2"/>
@@ -2445,7 +2445,7 @@
         <v>81000</v>
       </c>
       <c r="E20" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="2"/>
@@ -2465,7 +2465,7 @@
         <v>90000</v>
       </c>
       <c r="E21" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="2"/>
@@ -2485,7 +2485,7 @@
         <v>90000</v>
       </c>
       <c r="E22" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="2"/>
@@ -2505,7 +2505,7 @@
         <v>180000</v>
       </c>
       <c r="E23" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="2"/>
@@ -2525,7 +2525,7 @@
         <v>270000</v>
       </c>
       <c r="E24" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="2"/>
@@ -2545,7 +2545,7 @@
         <v>360000</v>
       </c>
       <c r="E25" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="2"/>
@@ -2565,7 +2565,7 @@
         <v>450000</v>
       </c>
       <c r="E26" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="2"/>
@@ -2585,7 +2585,7 @@
         <v>540000</v>
       </c>
       <c r="E27" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="2"/>
@@ -2605,7 +2605,7 @@
         <v>630000</v>
       </c>
       <c r="E28" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="2"/>
@@ -2625,7 +2625,7 @@
         <v>720000</v>
       </c>
       <c r="E29" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="2"/>
@@ -2645,7 +2645,7 @@
         <v>810000</v>
       </c>
       <c r="E30" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="2"/>
@@ -2665,7 +2665,7 @@
         <v>900000</v>
       </c>
       <c r="E31" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="2"/>
@@ -2685,7 +2685,7 @@
         <v>900000</v>
       </c>
       <c r="E32" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="2"/>
@@ -2705,7 +2705,7 @@
         <v>1800000</v>
       </c>
       <c r="E33" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="2"/>
@@ -2725,7 +2725,7 @@
         <v>2700000</v>
       </c>
       <c r="E34" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="2"/>
@@ -2745,7 +2745,7 @@
         <v>3600000</v>
       </c>
       <c r="E35" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="2"/>
@@ -2765,7 +2765,7 @@
         <v>4500000</v>
       </c>
       <c r="E36" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="2"/>
@@ -2785,7 +2785,7 @@
         <v>5400000</v>
       </c>
       <c r="E37" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F37" s="6"/>
     </row>
@@ -2804,7 +2804,7 @@
         <v>6300000</v>
       </c>
       <c r="E38" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F38" s="6"/>
     </row>
@@ -2823,7 +2823,7 @@
         <v>7200000</v>
       </c>
       <c r="E39" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F39" s="6"/>
     </row>
@@ -2842,7 +2842,7 @@
         <v>8100000</v>
       </c>
       <c r="E40" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F40" s="6"/>
     </row>
@@ -2861,7 +2861,7 @@
         <v>9000000</v>
       </c>
       <c r="E41" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F41" s="6"/>
     </row>
@@ -2880,7 +2880,7 @@
         <v>9000000</v>
       </c>
       <c r="E42" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F42" s="6"/>
     </row>
@@ -2899,7 +2899,7 @@
         <v>18000000</v>
       </c>
       <c r="E43" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F43" s="6"/>
     </row>
@@ -2918,7 +2918,7 @@
         <v>27000000</v>
       </c>
       <c r="E44" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F44" s="6"/>
     </row>
@@ -2937,7 +2937,7 @@
         <v>36000000</v>
       </c>
       <c r="E45" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F45" s="6"/>
     </row>
@@ -2956,7 +2956,7 @@
         <v>45000000</v>
       </c>
       <c r="E46" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F46" s="6"/>
     </row>
@@ -2975,7 +2975,7 @@
         <v>54000000</v>
       </c>
       <c r="E47" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F47" s="6"/>
     </row>
@@ -2994,7 +2994,7 @@
         <v>63000000</v>
       </c>
       <c r="E48" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F48" s="6"/>
     </row>
@@ -3013,7 +3013,7 @@
         <v>72000000</v>
       </c>
       <c r="E49" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F49" s="6"/>
     </row>
@@ -3032,7 +3032,7 @@
         <v>81000000</v>
       </c>
       <c r="E50" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F50" s="6"/>
     </row>
@@ -3051,7 +3051,7 @@
         <v>90000000</v>
       </c>
       <c r="E51" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="F51" s="6"/>
     </row>
@@ -3070,7 +3070,7 @@
         <v>3000</v>
       </c>
       <c r="E52" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3088,7 +3088,7 @@
         <v>6000</v>
       </c>
       <c r="E53" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3106,7 +3106,7 @@
         <v>9000</v>
       </c>
       <c r="E54" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3124,7 +3124,7 @@
         <v>12000</v>
       </c>
       <c r="E55" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -3142,7 +3142,7 @@
         <v>15000</v>
       </c>
       <c r="E56" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -3160,7 +3160,7 @@
         <v>18000</v>
       </c>
       <c r="E57" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -3178,7 +3178,7 @@
         <v>21000</v>
       </c>
       <c r="E58" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -3196,7 +3196,7 @@
         <v>24000</v>
       </c>
       <c r="E59" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -3214,7 +3214,7 @@
         <v>27000</v>
       </c>
       <c r="E60" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -3232,7 +3232,7 @@
         <v>30000</v>
       </c>
       <c r="E61" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -3250,7 +3250,7 @@
         <v>30000</v>
       </c>
       <c r="E62" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -3268,7 +3268,7 @@
         <v>60000</v>
       </c>
       <c r="E63" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3286,7 +3286,7 @@
         <v>90000</v>
       </c>
       <c r="E64" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3304,7 +3304,7 @@
         <v>120000</v>
       </c>
       <c r="E65" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3322,7 +3322,7 @@
         <v>150000</v>
       </c>
       <c r="E66" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3340,7 +3340,7 @@
         <v>180000</v>
       </c>
       <c r="E67" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3358,7 +3358,7 @@
         <v>210000</v>
       </c>
       <c r="E68" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3376,7 +3376,7 @@
         <v>240000</v>
       </c>
       <c r="E69" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3394,7 +3394,7 @@
         <v>270000</v>
       </c>
       <c r="E70" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3412,7 +3412,7 @@
         <v>300000</v>
       </c>
       <c r="E71" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3430,7 +3430,7 @@
         <v>300000</v>
       </c>
       <c r="E72" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3448,7 +3448,7 @@
         <v>600000</v>
       </c>
       <c r="E73" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3466,7 +3466,7 @@
         <v>900000</v>
       </c>
       <c r="E74" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3484,7 +3484,7 @@
         <v>1200000</v>
       </c>
       <c r="E75" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3502,7 +3502,7 @@
         <v>1500000</v>
       </c>
       <c r="E76" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3520,7 +3520,7 @@
         <v>1800000</v>
       </c>
       <c r="E77" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3538,7 +3538,7 @@
         <v>2100000</v>
       </c>
       <c r="E78" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3556,7 +3556,7 @@
         <v>2400000</v>
       </c>
       <c r="E79" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3574,7 +3574,7 @@
         <v>2700000</v>
       </c>
       <c r="E80" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3592,7 +3592,7 @@
         <v>3000000</v>
       </c>
       <c r="E81" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3610,7 +3610,7 @@
         <v>3000000</v>
       </c>
       <c r="E82" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3628,7 +3628,7 @@
         <v>6000000</v>
       </c>
       <c r="E83" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -3646,7 +3646,7 @@
         <v>9000000</v>
       </c>
       <c r="E84" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3664,7 +3664,7 @@
         <v>12000000</v>
       </c>
       <c r="E85" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3682,7 +3682,7 @@
         <v>15000000</v>
       </c>
       <c r="E86" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3700,7 +3700,7 @@
         <v>18000000</v>
       </c>
       <c r="E87" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3718,7 +3718,7 @@
         <v>21000000</v>
       </c>
       <c r="E88" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -3736,7 +3736,7 @@
         <v>24000000</v>
       </c>
       <c r="E89" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3754,7 +3754,7 @@
         <v>27000000</v>
       </c>
       <c r="E90" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -3772,7 +3772,7 @@
         <v>30000000</v>
       </c>
       <c r="E91" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -3790,7 +3790,7 @@
         <v>30000000</v>
       </c>
       <c r="E92" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -3808,7 +3808,7 @@
         <v>60000000</v>
       </c>
       <c r="E93" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -3826,7 +3826,7 @@
         <v>90000000</v>
       </c>
       <c r="E94" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -3844,7 +3844,7 @@
         <v>120000000</v>
       </c>
       <c r="E95" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -3862,7 +3862,7 @@
         <v>150000000</v>
       </c>
       <c r="E96" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -3880,7 +3880,7 @@
         <v>180000000</v>
       </c>
       <c r="E97" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3898,7 +3898,7 @@
         <v>210000000</v>
       </c>
       <c r="E98" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -3916,7 +3916,7 @@
         <v>240000000</v>
       </c>
       <c r="E99" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3934,7 +3934,7 @@
         <v>270000000</v>
       </c>
       <c r="E100" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3952,7 +3952,7 @@
         <v>300000000</v>
       </c>
       <c r="E101" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -4088,8 +4088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/fish3d_gun_barrel_config.xlsx
+++ b/config_debug/fish3d_gun_barrel_config.xlsx
@@ -2037,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E101"/>
     </sheetView>
   </sheetViews>
@@ -2088,7 +2088,7 @@
         <v>900</v>
       </c>
       <c r="E2" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F2" s="6"/>
     </row>
@@ -2107,7 +2107,7 @@
         <v>1800</v>
       </c>
       <c r="E3" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -2126,7 +2126,7 @@
         <v>2700</v>
       </c>
       <c r="E4" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -2145,7 +2145,7 @@
         <v>3600</v>
       </c>
       <c r="E5" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
@@ -2165,7 +2165,7 @@
         <v>4500</v>
       </c>
       <c r="E6" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="2"/>
@@ -2185,7 +2185,7 @@
         <v>5400</v>
       </c>
       <c r="E7" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
@@ -2205,7 +2205,7 @@
         <v>6300</v>
       </c>
       <c r="E8" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
@@ -2225,7 +2225,7 @@
         <v>7200</v>
       </c>
       <c r="E9" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="2"/>
@@ -2245,7 +2245,7 @@
         <v>8100</v>
       </c>
       <c r="E10" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
@@ -2265,7 +2265,7 @@
         <v>9000</v>
       </c>
       <c r="E11" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
@@ -2285,7 +2285,7 @@
         <v>9000</v>
       </c>
       <c r="E12" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
@@ -2305,7 +2305,7 @@
         <v>18000</v>
       </c>
       <c r="E13" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
@@ -2325,7 +2325,7 @@
         <v>27000</v>
       </c>
       <c r="E14" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
@@ -2345,7 +2345,7 @@
         <v>36000</v>
       </c>
       <c r="E15" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="2"/>
@@ -2365,7 +2365,7 @@
         <v>45000</v>
       </c>
       <c r="E16" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
@@ -2385,7 +2385,7 @@
         <v>54000</v>
       </c>
       <c r="E17" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
@@ -2405,7 +2405,7 @@
         <v>63000</v>
       </c>
       <c r="E18" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="2"/>
@@ -2425,7 +2425,7 @@
         <v>72000</v>
       </c>
       <c r="E19" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="2"/>
@@ -2445,7 +2445,7 @@
         <v>81000</v>
       </c>
       <c r="E20" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="2"/>
@@ -2465,7 +2465,7 @@
         <v>90000</v>
       </c>
       <c r="E21" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="2"/>
@@ -2485,7 +2485,7 @@
         <v>90000</v>
       </c>
       <c r="E22" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="2"/>
@@ -2505,7 +2505,7 @@
         <v>180000</v>
       </c>
       <c r="E23" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="2"/>
@@ -2525,7 +2525,7 @@
         <v>270000</v>
       </c>
       <c r="E24" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="2"/>
@@ -2545,7 +2545,7 @@
         <v>360000</v>
       </c>
       <c r="E25" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="2"/>
@@ -2565,7 +2565,7 @@
         <v>450000</v>
       </c>
       <c r="E26" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="2"/>
@@ -2585,7 +2585,7 @@
         <v>540000</v>
       </c>
       <c r="E27" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="2"/>
@@ -2605,7 +2605,7 @@
         <v>630000</v>
       </c>
       <c r="E28" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="2"/>
@@ -2625,7 +2625,7 @@
         <v>720000</v>
       </c>
       <c r="E29" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="2"/>
@@ -2645,7 +2645,7 @@
         <v>810000</v>
       </c>
       <c r="E30" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="2"/>
@@ -2665,7 +2665,7 @@
         <v>900000</v>
       </c>
       <c r="E31" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="2"/>
@@ -2685,7 +2685,7 @@
         <v>900000</v>
       </c>
       <c r="E32" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="2"/>
@@ -2705,7 +2705,7 @@
         <v>1800000</v>
       </c>
       <c r="E33" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="2"/>
@@ -2725,7 +2725,7 @@
         <v>2700000</v>
       </c>
       <c r="E34" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="2"/>
@@ -2745,7 +2745,7 @@
         <v>3600000</v>
       </c>
       <c r="E35" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="2"/>
@@ -2765,7 +2765,7 @@
         <v>4500000</v>
       </c>
       <c r="E36" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="2"/>
@@ -2785,7 +2785,7 @@
         <v>5400000</v>
       </c>
       <c r="E37" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F37" s="6"/>
     </row>
@@ -2804,7 +2804,7 @@
         <v>6300000</v>
       </c>
       <c r="E38" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F38" s="6"/>
     </row>
@@ -2823,7 +2823,7 @@
         <v>7200000</v>
       </c>
       <c r="E39" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F39" s="6"/>
     </row>
@@ -2842,7 +2842,7 @@
         <v>8100000</v>
       </c>
       <c r="E40" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F40" s="6"/>
     </row>
@@ -2861,7 +2861,7 @@
         <v>9000000</v>
       </c>
       <c r="E41" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F41" s="6"/>
     </row>
@@ -2880,7 +2880,7 @@
         <v>9000000</v>
       </c>
       <c r="E42" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F42" s="6"/>
     </row>
@@ -2899,7 +2899,7 @@
         <v>18000000</v>
       </c>
       <c r="E43" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F43" s="6"/>
     </row>
@@ -2918,7 +2918,7 @@
         <v>27000000</v>
       </c>
       <c r="E44" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F44" s="6"/>
     </row>
@@ -2937,7 +2937,7 @@
         <v>36000000</v>
       </c>
       <c r="E45" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F45" s="6"/>
     </row>
@@ -2956,7 +2956,7 @@
         <v>45000000</v>
       </c>
       <c r="E46" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F46" s="6"/>
     </row>
@@ -2975,7 +2975,7 @@
         <v>54000000</v>
       </c>
       <c r="E47" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F47" s="6"/>
     </row>
@@ -2994,7 +2994,7 @@
         <v>63000000</v>
       </c>
       <c r="E48" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F48" s="6"/>
     </row>
@@ -3013,7 +3013,7 @@
         <v>72000000</v>
       </c>
       <c r="E49" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F49" s="6"/>
     </row>
@@ -3032,7 +3032,7 @@
         <v>81000000</v>
       </c>
       <c r="E50" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F50" s="6"/>
     </row>
@@ -3051,7 +3051,7 @@
         <v>90000000</v>
       </c>
       <c r="E51" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F51" s="6"/>
     </row>
@@ -3070,7 +3070,7 @@
         <v>3000</v>
       </c>
       <c r="E52" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3088,7 +3088,7 @@
         <v>6000</v>
       </c>
       <c r="E53" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3106,7 +3106,7 @@
         <v>9000</v>
       </c>
       <c r="E54" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3124,7 +3124,7 @@
         <v>12000</v>
       </c>
       <c r="E55" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -3142,7 +3142,7 @@
         <v>15000</v>
       </c>
       <c r="E56" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -3160,7 +3160,7 @@
         <v>18000</v>
       </c>
       <c r="E57" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -3178,7 +3178,7 @@
         <v>21000</v>
       </c>
       <c r="E58" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -3196,7 +3196,7 @@
         <v>24000</v>
       </c>
       <c r="E59" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -3214,7 +3214,7 @@
         <v>27000</v>
       </c>
       <c r="E60" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -3232,7 +3232,7 @@
         <v>30000</v>
       </c>
       <c r="E61" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -3250,7 +3250,7 @@
         <v>30000</v>
       </c>
       <c r="E62" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -3268,7 +3268,7 @@
         <v>60000</v>
       </c>
       <c r="E63" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3286,7 +3286,7 @@
         <v>90000</v>
       </c>
       <c r="E64" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3304,7 +3304,7 @@
         <v>120000</v>
       </c>
       <c r="E65" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3322,7 +3322,7 @@
         <v>150000</v>
       </c>
       <c r="E66" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3340,7 +3340,7 @@
         <v>180000</v>
       </c>
       <c r="E67" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3358,7 +3358,7 @@
         <v>210000</v>
       </c>
       <c r="E68" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3376,7 +3376,7 @@
         <v>240000</v>
       </c>
       <c r="E69" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3394,7 +3394,7 @@
         <v>270000</v>
       </c>
       <c r="E70" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3412,7 +3412,7 @@
         <v>300000</v>
       </c>
       <c r="E71" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3430,7 +3430,7 @@
         <v>300000</v>
       </c>
       <c r="E72" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3448,7 +3448,7 @@
         <v>600000</v>
       </c>
       <c r="E73" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3466,7 +3466,7 @@
         <v>900000</v>
       </c>
       <c r="E74" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3484,7 +3484,7 @@
         <v>1200000</v>
       </c>
       <c r="E75" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3502,7 +3502,7 @@
         <v>1500000</v>
       </c>
       <c r="E76" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3520,7 +3520,7 @@
         <v>1800000</v>
       </c>
       <c r="E77" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3538,7 +3538,7 @@
         <v>2100000</v>
       </c>
       <c r="E78" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3556,7 +3556,7 @@
         <v>2400000</v>
       </c>
       <c r="E79" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3574,7 +3574,7 @@
         <v>2700000</v>
       </c>
       <c r="E80" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3592,7 +3592,7 @@
         <v>3000000</v>
       </c>
       <c r="E81" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3610,7 +3610,7 @@
         <v>3000000</v>
       </c>
       <c r="E82" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3628,7 +3628,7 @@
         <v>6000000</v>
       </c>
       <c r="E83" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -3646,7 +3646,7 @@
         <v>9000000</v>
       </c>
       <c r="E84" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3664,7 +3664,7 @@
         <v>12000000</v>
       </c>
       <c r="E85" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3682,7 +3682,7 @@
         <v>15000000</v>
       </c>
       <c r="E86" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3700,7 +3700,7 @@
         <v>18000000</v>
       </c>
       <c r="E87" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3718,7 +3718,7 @@
         <v>21000000</v>
       </c>
       <c r="E88" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -3736,7 +3736,7 @@
         <v>24000000</v>
       </c>
       <c r="E89" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3754,7 +3754,7 @@
         <v>27000000</v>
       </c>
       <c r="E90" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -3772,7 +3772,7 @@
         <v>30000000</v>
       </c>
       <c r="E91" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -3790,7 +3790,7 @@
         <v>30000000</v>
       </c>
       <c r="E92" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -3808,7 +3808,7 @@
         <v>60000000</v>
       </c>
       <c r="E93" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -3826,7 +3826,7 @@
         <v>90000000</v>
       </c>
       <c r="E94" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -3844,7 +3844,7 @@
         <v>120000000</v>
       </c>
       <c r="E95" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -3862,7 +3862,7 @@
         <v>150000000</v>
       </c>
       <c r="E96" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -3880,7 +3880,7 @@
         <v>180000000</v>
       </c>
       <c r="E97" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3898,7 +3898,7 @@
         <v>210000000</v>
       </c>
       <c r="E98" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -3916,7 +3916,7 @@
         <v>240000000</v>
       </c>
       <c r="E99" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3934,7 +3934,7 @@
         <v>270000000</v>
       </c>
       <c r="E100" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3952,7 +3952,7 @@
         <v>300000000</v>
       </c>
       <c r="E101" s="5">
-        <v>0.06</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
